--- a/public/assets/template_files/templateRegisterUser.xlsx
+++ b/public/assets/template_files/templateRegisterUser.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FILES\PROJECTS\Primsky Iftech\InventoryManagement\frontend\InventoryManagementFE\public\assets\template_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FILES\PROJECTS\Primsky_Iftech\InventoryManagement\frontend\InventoryManagementFE\public\assets\template_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D035E66-5F68-4379-A692-574B9163574B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B371198B-A5EC-475A-9BE9-C7EBDCE26E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15930" xr2:uid="{C6A4B7C5-4D59-464D-A0B3-2D20617DD4B9}"/>
   </bookViews>
@@ -29,6 +29,9 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -69,13 +72,13 @@
     <t>Untuk role code</t>
   </si>
   <si>
-    <t>(RL_SA = super admin, RL_A = admin, RL_SUP = supplier)</t>
-  </si>
-  <si>
     <t>BARIS INI ADALAH CONTOH, BOLEH DIHAPUS</t>
   </si>
   <si>
     <t>Email jangan ada yang sama</t>
+  </si>
+  <si>
+    <t>(RL_SA = super admin, RL_A = admin)</t>
   </si>
 </sst>
 </file>
@@ -467,7 +470,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,7 +481,7 @@
     <col min="4" max="4" width="57.5703125" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" style="6" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" width="50.5703125" customWidth="1"/>
+    <col min="7" max="7" width="41.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -501,10 +504,10 @@
         <v>10</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
@@ -532,7 +535,7 @@
         <v>81234567001</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
